--- a/Regression.Inv.Excel.xlsx
+++ b/Regression.Inv.Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC8B0D1-8F4C-41CC-A7C5-9DBFB55CFB4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D5DDE7-B4BF-4351-981A-57E5AD318326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E19C080-1D57-47AA-B00E-707ABDA4C00C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Store</t>
   </si>
@@ -43,13 +43,93 @@
   <si>
     <t>Traffic</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,12 +153,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,15 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD172A4-D666-4207-B539-0379F8E02FD3}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +520,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -429,7 +538,7 @@
         <v>5246.4166670000004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -442,8 +551,12 @@
       <c r="D3">
         <v>4792.6666670000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -456,8 +569,14 @@
       <c r="D4">
         <v>3564.083333</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.97054214809391293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -470,8 +589,14 @@
       <c r="D5">
         <v>6304.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.94195206122674691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -484,8 +609,14 @@
       <c r="D6">
         <v>7169.7777779999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.94136274205138393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -498,8 +629,14 @@
       <c r="D7">
         <v>2133.916667</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3732.2256015454359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -512,8 +649,14 @@
       <c r="D8">
         <v>3979</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -527,7 +670,7 @@
         <v>4002.333333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -540,8 +683,11 @@
       <c r="D10">
         <v>2637.181818</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -554,8 +700,24 @@
       <c r="D11">
         <v>5248.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -568,8 +730,26 @@
       <c r="D12">
         <v>6332.0909089999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44529108385.65123</v>
+      </c>
+      <c r="I12" s="1">
+        <v>22264554192.825615</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1598.3733443707747</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.7100156783209561E-122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -582,8 +762,22 @@
       <c r="D13">
         <v>3931.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>197</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2744113064.3437448</v>
+      </c>
+      <c r="I13" s="1">
+        <v>13929507.940831192</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -596,8 +790,20 @@
       <c r="D14">
         <v>2784</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2">
+        <v>199</v>
+      </c>
+      <c r="H14" s="2">
+        <v>47273221449.994972</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -611,7 +817,7 @@
         <v>6574.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -624,8 +830,33 @@
       <c r="D16">
         <v>7511.6666670000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -638,8 +869,35 @@
       <c r="D17">
         <v>6851.6666670000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2594.4006000651134</v>
+      </c>
+      <c r="H17" s="1">
+        <v>810.09758320633352</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.202577879317428</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.5883580193557631E-3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>996.82414090926773</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4191.9770592209588</v>
+      </c>
+      <c r="M17" s="1">
+        <v>996.82414090926773</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4191.9770592209588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -652,8 +910,35 @@
       <c r="D18">
         <v>4041.8888889999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.4289391099354083E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.9961537116100318E-3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>11.44446994374268</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.3955701594605662E-23</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.83807391827103E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4.0198043015997866E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.83807391827103E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4.0198043015997866E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -666,8 +951,35 @@
       <c r="D19">
         <v>5611.5454550000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.434781599292271</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.3883222323691497</v>
+      </c>
+      <c r="I19" s="2">
+        <v>13.995545828356846</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.3656889940557728E-31</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4.6689794664870075</v>
+      </c>
+      <c r="L19" s="2">
+        <v>6.2005837320975346</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4.6689794664870075</v>
+      </c>
+      <c r="N19" s="2">
+        <v>6.2005837320975346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -681,7 +993,7 @@
         <v>3923.583333</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -695,7 +1007,7 @@
         <v>4659.3333329999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -709,7 +1021,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -723,7 +1035,7 @@
         <v>4984.6000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -737,7 +1049,7 @@
         <v>1612.4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -751,7 +1063,7 @@
         <v>3063.333333</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -765,7 +1077,7 @@
         <v>5837.3333329999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -779,7 +1091,7 @@
         <v>3752.333333</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -793,7 +1105,7 @@
         <v>2687.666667</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -807,7 +1119,7 @@
         <v>3600.272727</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -821,7 +1133,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -835,7 +1147,7 @@
         <v>4513.2222220000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
